--- a/icml/icml_2025.xlsx
+++ b/icml/icml_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cs project\AI_for_Science_paper_collection\icml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5442AFA3-26CD-498A-81DE-F1447EE6B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97003A-D04A-474E-BA8C-1934F7C87B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{DDF79BF1-8518-4F47-92E3-B8ABA3BB2865}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -54,13 +55,65 @@
   </si>
   <si>
     <t>OpenreviewLink</t>
+  </si>
+  <si>
+    <t>ICML_2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riemann Tensor Neural Networks: Learning Conservative Systems with Physics-Constrained Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceGrad: a Framework Learning Expressive SO(3)-equivariant Non-linear Representations for Electronic-Structure Hamiltonian Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application-Driven Machine Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIPT: Multilevel Informed Prompt Tuning for Robust Molecular Property Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>social science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR-Bench: An Over-Refusal Benchmark for Large Language Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://openreview.net/forum?id=CdFnEu0JZV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large Language Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +124,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -94,18 +156,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,13 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2154B5C6-32B8-4231-9350-DF291EB2116F}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="47.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -465,8 +538,137 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{7D1C815A-A269-4D27-AAE8-73C0D823B6AF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/icml/icml_2025.xlsx
+++ b/icml/icml_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cs project\AI_for_Science_paper_collection\icml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97003A-D04A-474E-BA8C-1934F7C87B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5442AFA3-26CD-498A-81DE-F1447EE6B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{DDF79BF1-8518-4F47-92E3-B8ABA3BB2865}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Title</t>
   </si>
@@ -55,65 +54,13 @@
   </si>
   <si>
     <t>OpenreviewLink</t>
-  </si>
-  <si>
-    <t>ICML_2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riemann Tensor Neural Networks: Learning Conservative Systems with Physics-Constrained Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neural Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TraceGrad: a Framework Learning Expressive SO(3)-equivariant Non-linear Representations for Electronic-Structure Hamiltonian Prediction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chemistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application-Driven Machine Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIPT: Multilevel Informed Prompt Tuning for Robust Molecular Property Prediction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>social science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR-Bench: An Over-Refusal Benchmark for Large Language Models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://openreview.net/forum?id=CdFnEu0JZV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Large Language Models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,15 +71,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -156,25 +94,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,17 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2154B5C6-32B8-4231-9350-DF291EB2116F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="47.58203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -538,137 +465,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{7D1C815A-A269-4D27-AAE8-73C0D823B6AF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>